--- a/UserFeedback_ABTesting.xlsx
+++ b/UserFeedback_ABTesting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrishabh\OneDrive\Desktop\Restaurent Recommendation\Restaurent Recommendation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70C84AD-7720-42D2-BAAE-B89E83DD5FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B58206-F949-48E5-9BF5-7C2B2850D3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL options" sheetId="1" r:id="rId1"/>
@@ -625,7 +625,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,6 +691,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -815,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -869,13 +875,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -887,6 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1424,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,7 +1468,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -1478,7 +1485,7 @@
         <v>63</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="J2" s="3"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -2007,7 +2014,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6113,60 +6120,60 @@
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="str">
+      <c r="A3" s="27" t="str">
         <f>'Testing With Models'!B11</f>
         <v>('biryani','Indoorseating','expensive','Baguihati')</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
@@ -6261,20 +6268,20 @@
       <c r="A27" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
@@ -6316,50 +6323,50 @@
       <c r="A38" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A27:O27"/>
+    <mergeCell ref="A38:O39"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A25:O26"/>
+    <mergeCell ref="A36:P37"/>
     <mergeCell ref="A5:O5"/>
     <mergeCell ref="A16:O16"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O4"/>
-    <mergeCell ref="A27:O27"/>
-    <mergeCell ref="A38:O39"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A25:O26"/>
-    <mergeCell ref="A36:P37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6370,7 +6377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29157E41-B83B-46C2-BBF8-D7F28F42094D}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
